--- a/data-raw/magistad.pineapple.uniformity.xlsx
+++ b/data-raw/magistad.pineapple.uniformity.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CA3B0C-EA59-4C6C-AEE2-16A29CF494D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="0" windowWidth="13296" windowHeight="7752"/>
+    <workbookView xWindow="40455" yWindow="2445" windowWidth="11385" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -48,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,9 +118,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -147,7 +158,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -253,7 +264,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,14 +406,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -410,9 +421,9 @@
       <selection pane="bottomLeft" activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>19</v>
       </c>
@@ -452,7 +463,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>19</v>
       </c>
@@ -472,7 +483,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>19</v>
       </c>
@@ -492,7 +503,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>19</v>
       </c>
@@ -512,7 +523,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>19</v>
       </c>
@@ -532,7 +543,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>19</v>
       </c>
@@ -552,7 +563,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>19</v>
       </c>
@@ -572,7 +583,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>19</v>
       </c>
@@ -592,7 +603,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>19</v>
       </c>
@@ -612,7 +623,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>19</v>
       </c>
@@ -632,7 +643,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>19</v>
       </c>
@@ -652,7 +663,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>19</v>
       </c>
@@ -672,7 +683,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>19</v>
       </c>
@@ -692,7 +703,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>19</v>
       </c>
@@ -712,7 +723,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>19</v>
       </c>
@@ -732,7 +743,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>19</v>
       </c>
@@ -752,7 +763,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>19</v>
       </c>
@@ -772,7 +783,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>19</v>
       </c>
@@ -792,7 +803,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -812,7 +823,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -832,7 +843,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>19</v>
       </c>
@@ -852,7 +863,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>19</v>
       </c>
@@ -872,7 +883,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>19</v>
       </c>
@@ -892,7 +903,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>19</v>
       </c>
@@ -912,7 +923,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>82</v>
       </c>
@@ -932,7 +943,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>82</v>
       </c>
@@ -952,7 +963,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>82</v>
       </c>
@@ -972,7 +983,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>82</v>
       </c>
@@ -992,7 +1003,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>82</v>
       </c>
@@ -1012,7 +1023,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>82</v>
       </c>
@@ -1032,7 +1043,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>82</v>
       </c>
@@ -1052,7 +1063,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>82</v>
       </c>
@@ -1072,7 +1083,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>82</v>
       </c>
@@ -1092,7 +1103,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>82</v>
       </c>
@@ -1112,7 +1123,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>82</v>
       </c>
@@ -1132,7 +1143,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>82</v>
       </c>
@@ -1152,7 +1163,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>82</v>
       </c>
@@ -1172,7 +1183,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>82</v>
       </c>
@@ -1192,7 +1203,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>82</v>
       </c>
@@ -1212,7 +1223,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>82</v>
       </c>
@@ -1232,7 +1243,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>82</v>
       </c>
@@ -1252,7 +1263,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>82</v>
       </c>
@@ -1272,7 +1283,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>82</v>
       </c>
@@ -1292,7 +1303,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>82</v>
       </c>
@@ -1312,7 +1323,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>82</v>
       </c>
@@ -1332,7 +1343,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>82</v>
       </c>
@@ -1352,7 +1363,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>82</v>
       </c>
@@ -1372,7 +1383,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>82</v>
       </c>
@@ -1392,7 +1403,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>21</v>
       </c>
@@ -1412,7 +1423,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>21</v>
       </c>
@@ -1432,7 +1443,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>21</v>
       </c>
@@ -1452,7 +1463,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>21</v>
       </c>
@@ -1472,7 +1483,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>21</v>
       </c>
@@ -1492,7 +1503,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>21</v>
       </c>
@@ -1512,7 +1523,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>21</v>
       </c>
@@ -1532,7 +1543,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>21</v>
       </c>
@@ -1552,7 +1563,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>21</v>
       </c>
@@ -1572,7 +1583,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>21</v>
       </c>
@@ -1592,7 +1603,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>21</v>
       </c>
@@ -1612,7 +1623,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>21</v>
       </c>
@@ -1632,7 +1643,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>21</v>
       </c>
@@ -1652,7 +1663,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>21</v>
       </c>
@@ -1672,7 +1683,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>21</v>
       </c>
@@ -1692,7 +1703,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>21</v>
       </c>
@@ -1712,7 +1723,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>21</v>
       </c>
@@ -1732,7 +1743,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>21</v>
       </c>
@@ -1752,7 +1763,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>21</v>
       </c>
@@ -1772,7 +1783,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>21</v>
       </c>
@@ -1792,7 +1803,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>21</v>
       </c>
@@ -1812,7 +1823,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>21</v>
       </c>
@@ -1832,7 +1843,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>21</v>
       </c>
@@ -1852,7 +1863,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>21</v>
       </c>
@@ -1872,7 +1883,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>21</v>
       </c>
@@ -1892,7 +1903,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>1</v>
       </c>
@@ -1912,7 +1923,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1</v>
       </c>
@@ -1932,7 +1943,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>1</v>
       </c>
@@ -1952,7 +1963,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>1</v>
       </c>
@@ -1972,7 +1983,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>1</v>
       </c>
@@ -1992,7 +2003,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>1</v>
       </c>
@@ -2012,7 +2023,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>1</v>
       </c>
@@ -2032,7 +2043,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1</v>
       </c>
@@ -2052,7 +2063,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1</v>
       </c>
@@ -2072,7 +2083,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>1</v>
       </c>
@@ -2092,7 +2103,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>1</v>
       </c>
@@ -2112,7 +2123,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>1</v>
       </c>
@@ -2132,7 +2143,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>1</v>
       </c>
@@ -2152,7 +2163,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>1</v>
       </c>
@@ -2172,7 +2183,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>1</v>
       </c>
@@ -2192,7 +2203,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>1</v>
       </c>
@@ -2212,7 +2223,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>1</v>
       </c>
@@ -2232,7 +2243,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>1</v>
       </c>
@@ -2252,7 +2263,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>1</v>
       </c>
@@ -2272,7 +2283,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>1</v>
       </c>
@@ -2292,7 +2303,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>1</v>
       </c>
@@ -2312,7 +2323,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>1</v>
       </c>
@@ -2332,7 +2343,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>1</v>
       </c>
@@ -2352,7 +2363,7 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>1</v>
       </c>
@@ -2372,7 +2383,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>1</v>
       </c>
@@ -2392,7 +2403,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>1</v>
       </c>
@@ -2412,7 +2423,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>1</v>
       </c>
@@ -2432,7 +2443,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>1</v>
       </c>
@@ -2452,7 +2463,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>1</v>
       </c>
@@ -2472,7 +2483,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>1</v>
       </c>
@@ -2492,7 +2503,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>1</v>
       </c>
@@ -2512,7 +2523,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>1</v>
       </c>
@@ -2532,7 +2543,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>1</v>
       </c>
@@ -2552,7 +2563,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>1</v>
       </c>
@@ -2572,7 +2583,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>1</v>
       </c>
@@ -2592,7 +2603,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>1</v>
       </c>
@@ -2612,7 +2623,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>1</v>
       </c>
@@ -2632,7 +2643,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>1</v>
       </c>
@@ -2652,7 +2663,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>1</v>
       </c>
@@ -2672,7 +2683,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>1</v>
       </c>
@@ -2692,7 +2703,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>1</v>
       </c>
@@ -2712,7 +2723,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>1</v>
       </c>
@@ -2732,7 +2743,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>1</v>
       </c>
@@ -2752,7 +2763,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>1</v>
       </c>
@@ -2772,7 +2783,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>1</v>
       </c>
@@ -2792,7 +2803,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>1</v>
       </c>
@@ -2812,7 +2823,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>1</v>
       </c>
@@ -2832,7 +2843,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>1</v>
       </c>
@@ -2852,7 +2863,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>1</v>
       </c>
@@ -2872,7 +2883,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>1</v>
       </c>
@@ -2892,7 +2903,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>1</v>
       </c>
@@ -2912,7 +2923,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>1</v>
       </c>
@@ -2932,7 +2943,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>1</v>
       </c>
@@ -2952,7 +2963,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>1</v>
       </c>
@@ -2972,7 +2983,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>1</v>
       </c>
@@ -2992,7 +3003,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>1</v>
       </c>
@@ -3012,7 +3023,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>1</v>
       </c>
@@ -3032,7 +3043,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>1</v>
       </c>
@@ -3052,7 +3063,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>1</v>
       </c>
@@ -3072,7 +3083,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>1</v>
       </c>
@@ -3092,7 +3103,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>1</v>
       </c>
@@ -3112,7 +3123,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>1</v>
       </c>
@@ -3132,7 +3143,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>1</v>
       </c>
@@ -3152,7 +3163,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>1</v>
       </c>
